--- a/dispositivosos.xlsx
+++ b/dispositivosos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xg\Documents\2 uni lap\VIS\4TO\Programacion en redes\practica 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xg\Documents\2 uni lap\VIS\4TO\Programacion en redes\practica 1\venv shit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1611B66B-8230-4884-A4DF-2DF4E07E6F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A88EDC-CD2A-46EB-BF85-15C5B2380ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,28 +51,28 @@
     <t>dominio</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>cisco123</t>
-  </si>
-  <si>
     <t>lab.local</t>
   </si>
   <si>
     <t>CISCO2901/K9</t>
   </si>
   <si>
-    <t>FTX153782SQ</t>
-  </si>
-  <si>
     <t>COM3</t>
   </si>
   <si>
-    <t>FJC2037A1GQ</t>
-  </si>
-  <si>
-    <t>PapuRouter</t>
+    <t>FJC2047A07R</t>
+  </si>
+  <si>
+    <t>cisco</t>
+  </si>
+  <si>
+    <t>FTX144583KT</t>
+  </si>
+  <si>
+    <t>R111</t>
+  </si>
+  <si>
+    <t>R11112</t>
   </si>
 </sst>
 </file>
@@ -96,20 +96,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -136,17 +140,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +504,7 @@
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,60 +530,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9600</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9600</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>9600</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>9600</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
